--- a/10v10/11/SWRC/TAMU_TEXAS.xlsx
+++ b/10v10/11/SWRC/TAMU_TEXAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\live-stats\11\SWRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v10\11\SWRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756D32A1-BA06-4236-A651-B1AA814B7154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8023A838-8D1B-45B4-A618-70FE4E634680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="113">
   <si>
     <t>A</t>
   </si>
@@ -127,9 +129,6 @@
     <t>ALEX STEWART</t>
   </si>
   <si>
-    <t>SAM HAIMOWITZ</t>
-  </si>
-  <si>
     <t>TL</t>
   </si>
   <si>
@@ -190,9 +189,6 @@
     <t>Q33</t>
   </si>
   <si>
-    <t>?,69</t>
-  </si>
-  <si>
     <t>15,10</t>
   </si>
   <si>
@@ -215,6 +211,165 @@
   </si>
   <si>
     <t>4,10</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>0056</t>
+  </si>
+  <si>
+    <t>0114</t>
+  </si>
+  <si>
+    <t>0138</t>
+  </si>
+  <si>
+    <t>15,16</t>
+  </si>
+  <si>
+    <t>0159</t>
+  </si>
+  <si>
+    <t>0218</t>
+  </si>
+  <si>
+    <t>15,69</t>
+  </si>
+  <si>
+    <t>0230</t>
+  </si>
+  <si>
+    <t>SAMMY GARZA</t>
+  </si>
+  <si>
+    <t>0247</t>
+  </si>
+  <si>
+    <t>0315</t>
+  </si>
+  <si>
+    <t>0307</t>
+  </si>
+  <si>
+    <t>0340</t>
+  </si>
+  <si>
+    <t>0352</t>
+  </si>
+  <si>
+    <t>0418</t>
+  </si>
+  <si>
+    <t>0458</t>
+  </si>
+  <si>
+    <t>0523</t>
+  </si>
+  <si>
+    <t>0539</t>
+  </si>
+  <si>
+    <t>0604</t>
+  </si>
+  <si>
+    <t>0636</t>
+  </si>
+  <si>
+    <t>0703</t>
+  </si>
+  <si>
+    <t>0753</t>
+  </si>
+  <si>
+    <t>0827</t>
+  </si>
+  <si>
+    <t>0856</t>
+  </si>
+  <si>
+    <t>0919</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1043</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>CAMERON VILLAMIL</t>
+  </si>
+  <si>
+    <t>1246</t>
+  </si>
+  <si>
+    <t>1306</t>
+  </si>
+  <si>
+    <t>1316</t>
+  </si>
+  <si>
+    <t>1410</t>
+  </si>
+  <si>
+    <t>1449</t>
+  </si>
+  <si>
+    <t>1520</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>1559</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1746</t>
+  </si>
+  <si>
+    <t>1816</t>
+  </si>
+  <si>
+    <t>1823</t>
+  </si>
+  <si>
+    <t>1850</t>
+  </si>
+  <si>
+    <t>1933</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2152</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2313</t>
   </si>
 </sst>
 </file>
@@ -503,7 +658,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -511,20 +674,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,8 +901,8 @@
   </sheetPr>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="77" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -776,21 +931,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
       <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -803,142 +958,142 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="26">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="22">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")+COUNTIFS(S:S,"G*")</f>
         <v>7</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="27" t="str">
+      <c r="M2" s="23"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="28" t="str">
         <f>IF(COUNTIF($A$7:$X$59,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$X$59,"OCA"),"^","")&amp;IF(COUNTIF($R$7:$X$59,"2CA"),"!","")</f>
         <v>*</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="18" t="str">
+      <c r="P2" s="23"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="29" t="str">
         <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
         <v>100*</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="20"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="24"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="23"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="27"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="26">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="22">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")+COUNTIFS(V:V,"G*")</f>
         <v>9</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="27" t="str">
+      <c r="M4" s="23"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="28" t="str">
         <f>IF(COUNTIF($A$7:$R$59,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$59,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$59,"2CB"),"!","")</f>
         <v/>
       </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="18" t="str">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="29" t="str">
         <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
         <v>90</v>
       </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="24"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="23"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="27"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -976,42 +1131,58 @@
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="8"/>
+      <c r="R7" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="5"/>
+      <c r="U7" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="V7" s="6"/>
       <c r="W7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X7" s="8"/>
+      <c r="X7" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
@@ -1019,8 +1190,8 @@
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>41</v>
+      <c r="B8" s="10">
+        <v>15</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="9" t="s">
@@ -1032,9 +1203,15 @@
       <c r="F8" s="11">
         <v>33</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="G8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="10">
+        <v>27</v>
+      </c>
+      <c r="I8" s="11">
+        <v>16</v>
+      </c>
       <c r="J8" s="9" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>3</v>
@@ -1069,7 +1246,7 @@
         <v>8</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="V8" s="9" t="s">
         <v>5</v>
@@ -1116,42 +1293,58 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R10" s="8"/>
+      <c r="R10" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="5"/>
+      <c r="U10" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="V10" s="6"/>
       <c r="W10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X10" s="8"/>
+      <c r="X10" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
@@ -1160,7 +1353,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="11">
         <v>20</v>
@@ -1202,8 +1395,8 @@
       <c r="P11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="10" t="s">
-        <v>41</v>
+      <c r="Q11" s="10">
+        <v>15</v>
       </c>
       <c r="R11" s="11">
         <v>22</v>
@@ -1260,56 +1453,72 @@
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="J13" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U13" s="5"/>
+      <c r="U13" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="V13" s="6"/>
       <c r="W13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X13" s="8"/>
+      <c r="X13" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B14" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C14" s="11">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>5</v>
@@ -1325,7 +1534,7 @@
         <v>22</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>4</v>
@@ -1340,8 +1549,8 @@
       <c r="N14" s="10">
         <v>10</v>
       </c>
-      <c r="O14" s="11" t="s">
-        <v>41</v>
+      <c r="O14" s="11">
+        <v>15</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>8</v>
@@ -1353,13 +1562,13 @@
         <v>22</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T14" s="10">
         <v>10</v>
       </c>
-      <c r="U14" s="11" t="s">
-        <v>41</v>
+      <c r="U14" s="11">
+        <v>15</v>
       </c>
       <c r="V14" s="9" t="s">
         <v>3</v>
@@ -1406,42 +1615,58 @@
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="O16" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="8"/>
+      <c r="R16" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="5"/>
+      <c r="U16" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="V16" s="6"/>
       <c r="W16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X16" s="8"/>
+      <c r="X16" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
@@ -1469,7 +1694,7 @@
         <v>8</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>7</v>
@@ -1478,13 +1703,13 @@
         <v>15</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="10" t="s">
-        <v>41</v>
+      <c r="N17" s="10">
+        <v>99</v>
       </c>
       <c r="O17" s="11">
         <v>19</v>
@@ -1552,46 +1777,62 @@
       <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="5"/>
+      <c r="O19" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="P19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R19" s="8"/>
+      <c r="R19" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U19" s="5"/>
+      <c r="U19" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="V19" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X19" s="8"/>
+      <c r="X19" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
@@ -1620,8 +1861,8 @@
       <c r="H20" s="10">
         <v>20</v>
       </c>
-      <c r="I20" s="11" t="s">
-        <v>41</v>
+      <c r="I20" s="11">
+        <v>12</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>8</v>
@@ -1633,13 +1874,13 @@
         <v>33</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="N20" s="10">
-        <v>27</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="O20" s="11">
+        <v>1</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>25</v>
@@ -1658,7 +1899,7 @@
       </c>
       <c r="U20" s="11"/>
       <c r="V20" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W20" s="10">
         <v>1</v>
@@ -1702,44 +1943,60 @@
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="5"/>
+      <c r="O22" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R22" s="8"/>
+      <c r="R22" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="S22" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U22" s="5"/>
+      <c r="U22" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="V22" s="6"/>
       <c r="W22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X22" s="8"/>
+      <c r="X22" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
@@ -1768,8 +2025,8 @@
       <c r="H23" s="10">
         <v>10</v>
       </c>
-      <c r="I23" s="11" t="s">
-        <v>41</v>
+      <c r="I23" s="11">
+        <v>23</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>9</v>
@@ -1805,7 +2062,7 @@
         <v>8</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="V23" s="9" t="s">
         <v>6</v>
@@ -1850,7 +2107,9 @@
       <c r="B25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7" t="s">
         <v>2</v>
@@ -29075,6 +29334,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="R2:W3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:W5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
@@ -29084,13 +29350,6 @@
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="R2:W3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:W5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29105,8 +29364,8 @@
   </sheetPr>
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29147,7 +29406,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29164,7 +29423,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="17"/>
     </row>
@@ -29187,7 +29446,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>12</v>
@@ -29216,7 +29475,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="17"/>
     </row>
@@ -29225,7 +29484,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="12"/>
     </row>
@@ -29244,7 +29503,7 @@
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29252,7 +29511,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>28</v>
@@ -29262,7 +29521,9 @@
       <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="C17" s="12" t="s">
         <v>14</v>
       </c>
@@ -29272,7 +29533,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="17"/>
     </row>
@@ -29281,7 +29542,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>15</v>
@@ -29292,7 +29553,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="12"/>
     </row>
@@ -29301,7 +29562,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="12"/>
     </row>
@@ -29310,7 +29571,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>27</v>
@@ -29337,7 +29598,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>17</v>
@@ -29370,9 +29631,7 @@
       <c r="A29" s="14">
         <v>27</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="B29" s="12"/>
       <c r="C29" s="12" t="s">
         <v>20</v>
       </c>
@@ -29403,7 +29662,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="17"/>
     </row>
@@ -29570,7 +29829,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>24</v>
@@ -29679,7 +29938,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C71" s="17"/>
     </row>
@@ -29890,7 +30149,9 @@
       <c r="A101" s="14">
         <v>99</v>
       </c>
-      <c r="B101" s="17"/>
+      <c r="B101" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="C101" s="17"/>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
